--- a/Workbooks/UsingFolders/JA/マシン.xlsx
+++ b/Workbooks/UsingFolders/JA/マシン.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\UsingFolders\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C242D79-6D87-459F-A2F8-9391C2F043A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0CA415-0DA7-4514-8683-CB7D9EF0DA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
